--- a/biology/Zoologie/Barbu_rayé/Barbu_rayé.xlsx
+++ b/biology/Zoologie/Barbu_rayé/Barbu_rayé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barbu_ray%C3%A9</t>
+          <t>Barbu_rayé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psilopogon lineatus
 Le Barbu rayé (Psilopogon lineatus, anciennement Megalaima lineata) est une espèce d'oiseaux appartenant à la famille des Megalaimidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barbu_ray%C3%A9</t>
+          <t>Barbu_rayé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve cet oiseau au nord de l'Inde, dans le sud du Népal, dans la vallée du Brahmapoutre et en Asie du Sud-Est continentale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve cet oiseau au nord de l'Inde, dans le sud du Népal, dans la vallée du Brahmapoutre et en Asie du Sud-Est continentale.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Barbu_ray%C3%A9</t>
+          <t>Barbu_rayé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le barbu rayé vit dans les forêts tropicales de tecks, les peuplements de pins, les parcelles en cours de régénération, les plantations et les jardins, dans les figuiers et autres arbres fruitiers.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Barbu_ray%C3%A9</t>
+          <t>Barbu_rayé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le barbu rayé mesure environ 30 cm et pèse entre 100 et 200 g.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Barbu_ray%C3%A9</t>
+          <t>Barbu_rayé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le barbu rayé est frugivore.
 Il mange des fruits dont des figues, des fruits des arbres grewia et des fraises sauvages.
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Barbu_ray%C3%A9</t>
+          <t>Barbu_rayé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le couple creuse ensemble une cavité dans un arbre ou une branche, voire dans un rondin ou une souche, entre 2 et 12 m au-dessus du sol. La galerie mesure environ 50 cm de profondeur. La femelle y dépose de 2 à 4 œufs
 </t>
